--- a/tester.xlsx
+++ b/tester.xlsx
@@ -1028,9 +1028,9 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="795" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="795" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="E16" sqref="E16"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>67</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>69</v>
       </c>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Testfall" sheetId="1" r:id="rId1"/>
     <sheet name="14-04-26" sheetId="2" r:id="rId2"/>
+    <sheet name="nästa tespprotokoll" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="124">
   <si>
     <t>TF</t>
   </si>
@@ -247,13 +248,163 @@
   </si>
   <si>
     <t>Värdet på attributet ärvs från stylen i index.html</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Scenario: Skapa användare</t>
+  </si>
+  <si>
+    <t>Scenario: Logga in</t>
+  </si>
+  <si>
+    <t>Scenario: Logga ut</t>
+  </si>
+  <si>
+    <t>Scenario: Spara mall</t>
+  </si>
+  <si>
+    <t>Scenario: Öppna tidigare sparad mall</t>
+  </si>
+  <si>
+    <t>Användare som inte tidigare registrerat sig på Mallgrodan med sin email väljer att registrera sig och fyller i lösenord</t>
+  </si>
+  <si>
+    <t>En användare med angiven email skapas i Firebase och användaren hälsas välkommen.</t>
+  </si>
+  <si>
+    <t>Användare som tidigare registrerat sig på Mallgrodan med sin email väljer att registrera sig och fyller i lösenord</t>
+  </si>
+  <si>
+    <t>Ingen ny användare skapas. Felmeddelande till användaren.</t>
+  </si>
+  <si>
+    <t>Användaren fyller i email och väljer att skapa användare</t>
+  </si>
+  <si>
+    <t>ingen ny användare skapas. Felmeddelande till användaren om att lösenord saknas.</t>
+  </si>
+  <si>
+    <t>Användare fyller i lösenord men inte email och väljer att skapa användare</t>
+  </si>
+  <si>
+    <t>Ingen ny användare skapas. Felmeddelande om att email saknas.</t>
+  </si>
+  <si>
+    <t>Användare som är registrerad på Mallgrodan väljer att logga in med email och lösenord</t>
+  </si>
+  <si>
+    <t>Användare som inte är registrerad på Mallgrodan väljer att logga in med email och lösenord</t>
+  </si>
+  <si>
+    <t>Användaren loggas in på Firebase och får ett meddelande om att han är inloggad</t>
+  </si>
+  <si>
+    <t>Meddelande om att registrering som användare krävs för inloggning</t>
+  </si>
+  <si>
+    <t>Användare som är registrerad på Mallgrodan väljer att logga in med email men utan lösenord</t>
+  </si>
+  <si>
+    <t>Användare som är registrerad på Mallgrodan väljer att logga in med lösenord men utan email</t>
+  </si>
+  <si>
+    <t>Ingen ingloggning sker. Felmeddelande till användaren.</t>
+  </si>
+  <si>
+    <t>Inloggad användare väljer att logga ut</t>
+  </si>
+  <si>
+    <t>Användaren loggas ut från Firebase och meddelas om det.</t>
+  </si>
+  <si>
+    <t>Inte inloggad användare väljer att logga ut</t>
+  </si>
+  <si>
+    <t>Användaren får ett felmeddelande</t>
+  </si>
+  <si>
+    <t>Inloggad användare väljer att spar css-inställningar och namnger mallen</t>
+  </si>
+  <si>
+    <t>Aktuella css-inställningar sparas på användaren och med namnet användaren gett mallen</t>
+  </si>
+  <si>
+    <t>Inte inloggad användare väljer att spar css-inställningar och namnger mallen</t>
+  </si>
+  <si>
+    <t>Mallen sparas inte och användaren meddelas att han måste vara inloggad för att spara</t>
+  </si>
+  <si>
+    <t>Inloggad användare väljer att spar css-inställningar utan att namnge mallen</t>
+  </si>
+  <si>
+    <t>Mallen sparas inte och användaren meddelas att mallen måste namnges</t>
+  </si>
+  <si>
+    <t>Användaren fyller inte i en korrekt mailadress (ex ej @)</t>
+  </si>
+  <si>
+    <t>Ingen ny användare skapas. Felmeddelande angående mailadress.</t>
+  </si>
+  <si>
+    <t>3 &amp; 4</t>
+  </si>
+  <si>
+    <t>Ev se till att knappen Spara inte syns förrän användaren är inloggad</t>
+  </si>
+  <si>
+    <t>Inloggad användare namnger en tidigare sparad mall och väljer att öppna den</t>
+  </si>
+  <si>
+    <t>Ej inloggad användare namnger en tidigare sparad mall och väljer att öppna den</t>
+  </si>
+  <si>
+    <t>Alternativet öppna ska inte vara möjligt när användaren inte är inloggad</t>
+  </si>
+  <si>
+    <t>Inloggad användare namnger en mall som inte finns sparad och väljer att öppna den</t>
+  </si>
+  <si>
+    <t>Ingenting nytt visas. Användaren meddelas att ingen mall med det namnet existerar.</t>
+  </si>
+  <si>
+    <t>Mallen visas i css-rutan och tillämpas på html-koden och syns i resultatet</t>
+  </si>
+  <si>
+    <t>Scenario: Visa sparade mallar</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>Inloggad användare väljer att visa tidigare sparade mallar</t>
+  </si>
+  <si>
+    <t>Namnen på användarens sparade mallar visas.</t>
+  </si>
+  <si>
+    <t>Ingen mall ger ingen utskrift. Kan förbättras senare med meddelande om att inga sparade mallar finns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +444,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,6 +511,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,19 +828,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G83"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="885"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="885" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="80.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="9" style="4" customWidth="1"/>
@@ -1009,14 +1216,309 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="D43" s="11"/>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>7</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D43" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D44" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D45" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D46" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="4">
+        <v>3</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B50" s="6"/>
+      <c r="D50" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B51" s="6"/>
+      <c r="D51" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B52" s="6"/>
+      <c r="D52" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B53" s="6"/>
+      <c r="D53" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B54" s="6"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55" s="6"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>9</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="4">
+        <v>3</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57" s="6"/>
+      <c r="D57" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="6"/>
+      <c r="D58" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59" s="6"/>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B60" s="6"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>10</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B62" s="6"/>
+      <c r="D62" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B63" s="6"/>
+      <c r="D63" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B64" s="6"/>
+      <c r="D64" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65" s="6"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="G66" s="25"/>
+    </row>
+    <row r="67" spans="2:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="5">
+        <v>4</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="G67" s="25"/>
+    </row>
+    <row r="68" spans="2:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B68" s="6"/>
+      <c r="D68" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" s="25"/>
+    </row>
+    <row r="69" spans="2:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B69" s="6"/>
+      <c r="D69" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" spans="2:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B70" s="6"/>
+      <c r="D70" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G70" s="25"/>
+    </row>
+    <row r="71" spans="2:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71" s="6"/>
+      <c r="E71" s="25"/>
+      <c r="G71" s="25"/>
+    </row>
+    <row r="72" spans="2:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="6"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="25"/>
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="4">
+        <v>4</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D74" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D75" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="D76" s="26"/>
+    </row>
+    <row r="80" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="D80" s="16"/>
+    </row>
+    <row r="81" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="D82" s="16"/>
+    </row>
+    <row r="83" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="D83" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,12 +1527,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="795" topLeftCell="A34" activePane="bottomLeft"/>
-      <selection activeCell="E16" sqref="E16"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="795" topLeftCell="A31" activePane="bottomLeft"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1712,7 +2214,236 @@
         <v>45</v>
       </c>
     </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D56" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D57" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D59" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="795"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A5:XFD54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="62.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tester.xlsx
+++ b/tester.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="135">
   <si>
     <t>TF</t>
   </si>
@@ -398,13 +398,46 @@
   </si>
   <si>
     <t>Ingen mall ger ingen utskrift. Kan förbättras senare med meddelande om att inga sparade mallar finns</t>
+  </si>
+  <si>
+    <t>Inloggad användare lämnar namnfältet tomt och väjler att öppna</t>
+  </si>
+  <si>
+    <t>Ingenting nytt visas. Användaren meddelas att mallens namn måste anges.</t>
+  </si>
+  <si>
+    <t>Scenario: Radera tidigare sparad mall</t>
+  </si>
+  <si>
+    <t>Inloggad användare namnger en tidigare sparad mall och väljer att ta bort den</t>
+  </si>
+  <si>
+    <t>Ej inloggad användare namnger en tidigare sparad mall och väljer att radera den</t>
+  </si>
+  <si>
+    <t>Valet Ta bort ska inte vara tillgängligt när man ej är inloggad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallen tas bort från firebase och användaren meddelas </t>
+  </si>
+  <si>
+    <t>Inloggad användare namnger en mall som inte finns sparad och väljer att ta bort den</t>
+  </si>
+  <si>
+    <t>Ingenting tas bort. Användaren meddelas om att ingen mall med angivna namnet existerar.</t>
+  </si>
+  <si>
+    <t>Ingenting tas bort. Användaren meddelas om att han måste ange namnet på mallen som ska tas bort</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +496,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +587,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,18 +869,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G83"/>
+  <dimension ref="A2:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="885" topLeftCell="A55" activePane="bottomLeft"/>
-      <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+      <pane ySplit="555" activePane="bottomLeft"/>
+      <selection sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="80.875" style="8" customWidth="1"/>
@@ -848,11 +889,11 @@
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -869,20 +910,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
       <c r="C4" s="6">
         <v>1</v>
       </c>
@@ -890,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -904,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -916,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -943,21 +983,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -971,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
@@ -983,7 +1021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1009,13 +1047,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="6"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1029,7 +1066,6 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="9" t="s">
         <v>8</v>
@@ -1038,24 +1074,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="6"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C20" s="6"/>
       <c r="D20" s="9" t="s">
         <v>12</v>
@@ -1093,10 +1126,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>4</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="4">
@@ -1152,14 +1185,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>5</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="4">
@@ -1188,14 +1221,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>6</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="4">
@@ -1216,11 +1249,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <v>7</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="4">
@@ -1254,7 +1287,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D45" s="11" t="s">
         <v>109</v>
       </c>
@@ -1270,8 +1303,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -1285,7 +1318,6 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B50" s="6"/>
       <c r="D50" s="21" t="s">
         <v>92</v>
       </c>
@@ -1294,7 +1326,6 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B51" s="6"/>
       <c r="D51" s="21" t="s">
         <v>93</v>
       </c>
@@ -1303,7 +1334,6 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
       <c r="D52" s="21" t="s">
         <v>96</v>
       </c>
@@ -1312,7 +1342,6 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B53" s="6"/>
       <c r="D53" s="21" t="s">
         <v>97</v>
       </c>
@@ -1320,16 +1349,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B54" s="6"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="6"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>9</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -1342,8 +1369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="6"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D57" s="21" t="s">
         <v>99</v>
       </c>
@@ -1351,8 +1377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="6"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D58" s="21" t="s">
         <v>101</v>
       </c>
@@ -1360,16 +1385,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
         <v>10</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -1383,7 +1406,6 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B62" s="6"/>
       <c r="D62" s="21" t="s">
         <v>103</v>
       </c>
@@ -1392,7 +1414,6 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B63" s="6"/>
       <c r="D63" s="21" t="s">
         <v>107</v>
       </c>
@@ -1401,7 +1422,6 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B64" s="6"/>
       <c r="D64" s="21" t="s">
         <v>105</v>
       </c>
@@ -1412,16 +1432,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D65" s="21"/>
     </row>
-    <row r="66" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="G66" s="25"/>
     </row>
-    <row r="67" spans="2:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>11</v>
+      </c>
       <c r="B67" s="6" t="s">
         <v>78</v>
       </c>
@@ -1434,7 +1458,8 @@
       <c r="E67" s="25"/>
       <c r="G67" s="25"/>
     </row>
-    <row r="68" spans="2:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="D68" s="26" t="s">
         <v>113</v>
@@ -1444,7 +1469,8 @@
       </c>
       <c r="G68" s="25"/>
     </row>
-    <row r="69" spans="2:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="26" t="s">
         <v>114</v>
@@ -1454,7 +1480,8 @@
       </c>
       <c r="G69" s="25"/>
     </row>
-    <row r="70" spans="2:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="D70" s="26" t="s">
         <v>116</v>
@@ -1464,18 +1491,28 @@
       </c>
       <c r="G70" s="25"/>
     </row>
-    <row r="71" spans="2:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="E71" s="25"/>
+      <c r="D71" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="G71" s="25"/>
     </row>
-    <row r="72" spans="2:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="20"/>
       <c r="E72" s="25"/>
       <c r="G72" s="25"/>
     </row>
-    <row r="73" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>12</v>
+      </c>
       <c r="B73" s="6" t="s">
         <v>120</v>
       </c>
@@ -1486,7 +1523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D74" s="26" t="s">
         <v>121</v>
       </c>
@@ -1497,7 +1534,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D75" s="26" t="s">
         <v>114</v>
       </c>
@@ -1505,20 +1542,66 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D76" s="26"/>
     </row>
-    <row r="80" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="D80" s="16"/>
-    </row>
-    <row r="81" spans="4:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="D81" s="16"/>
-    </row>
-    <row r="82" spans="4:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="D82" s="16"/>
-    </row>
-    <row r="83" spans="4:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="D83" s="16"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>13</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="4">
+        <v>5</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D79" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D80" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D81" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D82" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="16"/>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D87" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,9 +1613,9 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="795" topLeftCell="A31" activePane="bottomLeft"/>
+      <pane ySplit="795" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:XFD62"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2255,36 +2338,20 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>80</v>
-      </c>
+      <c r="B62" s="14"/>
+      <c r="D62" s="17"/>
     </row>
     <row r="72" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="B72" s="14"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B73" s="14"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="B74" s="14"/>
+      <c r="D74" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Testfall" sheetId="1" r:id="rId1"/>
     <sheet name="14-04-26" sheetId="2" r:id="rId2"/>
-    <sheet name="nästa tespprotokoll" sheetId="3" r:id="rId3"/>
+    <sheet name="14-05-22" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="169">
   <si>
     <t>TF</t>
   </si>
@@ -431,13 +431,118 @@
   </si>
   <si>
     <t>4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I firebase står efter användarnamn: "mitt användarnamn är simplelogin:23" </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Användaren registreras och lösenordet är '' ("tomt fält"), tillagt i pr.backlog</t>
+  </si>
+  <si>
+    <t>ua/*</t>
+  </si>
+  <si>
+    <t>Felmeddelande visas men ett allmänt d v s att ingen användare skapats. Det hämtas inte från de specifika i auth-variabeln</t>
+  </si>
+  <si>
+    <t>Meddelande om att lösenordet inte stämmer med användaren. Mer korrekt vora om meddelandet sa att registrering som användare krävs för inloggning</t>
+  </si>
+  <si>
+    <t>Gemensam: När ska det stå vem som är inloggad? Meddelandet försvinner/byts ut när användaren gör något som skapar ett nytt meddelande.</t>
+  </si>
+  <si>
+    <t>Inget felmeddelande</t>
+  </si>
+  <si>
+    <t>Nu får användaren inte valet att spara förrän han loggat in</t>
+  </si>
+  <si>
+    <t>Alternativet visa ska inte vara möjligt när användaren inte är inloggad</t>
+  </si>
+  <si>
+    <t>Ingen mall ger ingen utskrift. Kan förbättras senare med meddelande om att inga sparade mallar finns. Funktionen bör göras snyggare och inte bara lista alla. Men det är en början så att användaren inte behöver hålla reda på namnen. Se krav 4.9</t>
+  </si>
+  <si>
+    <t>Tidigare felmeddelanden står kvar ex om man först försökt öppna en mall som inte finns står meddelandet kvar när du öppnat en ny som finns.</t>
+  </si>
+  <si>
+    <t>I en ev lista där befintliga mallar visas borde den som raderas tas bort.</t>
+  </si>
+  <si>
+    <t>Inloggad användare lämnar namnfältet tomt och väjler att radera</t>
+  </si>
+  <si>
+    <t>nja</t>
+  </si>
+  <si>
+    <t>Meddelandet säger att det inte finns nägon sparad malll med namnet '' . Borde säga att namn måste anges. Se Öppna-funktionen.</t>
+  </si>
+  <si>
+    <t>Testrapport för enhetstest 2014-05-22</t>
+  </si>
+  <si>
+    <t>Version per sprint 5</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>Ta bort tidigare felmeddelanden när en ny mall öppnats</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>Se till att meddelanden avseende in-och utloggning ligger i anslutning till inloggning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kör testfall 7, 8 och 9 </t>
+  </si>
+  <si>
+    <t>Samtliga meddelanden meddelanden kommer ut i anslutning till inloggning</t>
+  </si>
+  <si>
+    <t>Kör testfall 10, 11, 12 och 13</t>
+  </si>
+  <si>
+    <t>Samtliga meddelanden meddelanden kommer ut i anslutning till funktionalitet för mallar</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>BK4</t>
+  </si>
+  <si>
+    <t>Testfall 14a</t>
+  </si>
+  <si>
+    <t>Samtliga meddelanden presenteras vid login-funktionaliteten</t>
+  </si>
+  <si>
+    <t>Testfall 14b</t>
+  </si>
+  <si>
+    <t>Därefter: Användaren namnger en tidigare sparad mall och väljer att öppna den</t>
+  </si>
+  <si>
+    <t>Mallen visas i css-rutan och tillämpas på html-koden och syns i resultatet och felmeddelandet försvinner.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +607,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -520,10 +647,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,9 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -589,9 +721,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Result" xfId="3"/>
+    <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -869,12 +1019,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G87"/>
+  <dimension ref="A2:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="555" activePane="bottomLeft"/>
+      <pane ySplit="555" topLeftCell="A76" activePane="bottomLeft"/>
       <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -890,10 +1040,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -911,8 +1061,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1249,362 +1399,489 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="41" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="D41" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <v>7</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C42" s="4">
         <v>3</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="D42" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="D43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D44" s="11" t="s">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D45" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="11" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D46" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D46" s="18" t="s">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D47" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D48" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <v>8</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C50" s="4">
         <v>3</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D50" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D50" s="21" t="s">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D51" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D51" s="21" t="s">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D52" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D52" s="21" t="s">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D53" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D53" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D54" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
         <v>9</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C57" s="4">
         <v>3</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D57" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D57" s="21" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D58" s="21" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D60" s="21"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
         <v>10</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C62" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D62" s="21" t="s">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D63" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D63" s="21" t="s">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D64" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D64" s="21" t="s">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D65" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="G66" s="25"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D66" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
         <v>11</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C68" s="5">
         <v>4</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D68" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="25"/>
-      <c r="G67" s="25"/>
-    </row>
-    <row r="68" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="D68" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" s="25"/>
+      <c r="E68" s="24"/>
+      <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="D69" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="25"/>
+      <c r="D69" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="D70" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G70" s="25"/>
+      <c r="D70" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="D71" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G71" s="25"/>
-    </row>
-    <row r="72" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="25"/>
-      <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="D72" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="D73" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73" s="24"/>
+    </row>
+    <row r="74" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="32"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
         <v>12</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C75" s="4">
         <v>4</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D75" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D74" s="26" t="s">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D76" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E76" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G76" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D75" s="26" t="s">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D77" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E75" s="25" t="s">
+      <c r="E77" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D76" s="26"/>
-    </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="D78" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
         <v>13</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C80" s="4">
         <v>5</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D80" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D79" s="26" t="s">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D81" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D80" s="26" t="s">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D82" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E82" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="4:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D81" s="26" t="s">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D83" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E83" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="4:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D82" s="26" t="s">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D84" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E84" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D84" s="16"/>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D85" s="16"/>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D86" s="16"/>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D87" s="16"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D85" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="32"/>
+      <c r="G86" s="32"/>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>14</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="33">
+        <v>6</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="30"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="30"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C90" s="33"/>
+      <c r="D90" s="32"/>
+    </row>
+    <row r="91" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>15</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="4">
+        <v>6</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D92" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B93" s="30"/>
+      <c r="D93" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1613,9 +1890,9 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="795" activePane="bottomLeft"/>
+      <pane ySplit="795" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:XFD92"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2298,48 +2575,24 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="D56" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="D57" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D58" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D59" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B55" s="14"/>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D59" s="17"/>
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
-      <c r="D62" s="17"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="72" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
@@ -2361,12 +2614,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="795"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A5:XFD54"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2383,13 +2636,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2422,92 +2675,509 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>7</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="D6" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="D7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="D8" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="18" t="s">
+      <c r="F8" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="D10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="F10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="14" t="s">
+      <c r="G13" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="D14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="D15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="D16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="D17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="15" t="s">
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="14" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="D21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="D22" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="15" t="s">
+      <c r="C25" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="14" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="D26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="D27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="D28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="15" t="s">
+      <c r="C31" s="5">
+        <v>4</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="E31" s="24"/>
+      <c r="G31" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="D32" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="D33" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="D34" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="D35" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="24"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>12</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="D38" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="D39" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>13</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="D43" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="D44" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="D45" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="D46" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -1024,7 +1024,7 @@
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="555" topLeftCell="A76" activePane="bottomLeft"/>
       <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1470,7 +1470,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>8</v>
       </c>
@@ -1483,8 +1483,11 @@
       <c r="D50" s="18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="D51" s="20" t="s">
         <v>92</v>
       </c>
@@ -1492,7 +1495,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
       <c r="D52" s="20" t="s">
         <v>93</v>
       </c>
@@ -1500,7 +1505,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
       <c r="D53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1508,7 +1515,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
       <c r="D54" s="20" t="s">
         <v>97</v>
       </c>
@@ -1516,7 +1525,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
       <c r="D55" s="32" t="s">
         <v>164</v>
       </c>
@@ -1524,10 +1535,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>9</v>
       </c>
@@ -1540,8 +1554,11 @@
       <c r="D57" s="21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
       <c r="D58" s="20" t="s">
         <v>99</v>
       </c>
@@ -1549,7 +1566,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
       <c r="D59" s="20" t="s">
         <v>101</v>
       </c>
@@ -1557,7 +1576,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
       <c r="D60" s="32" t="s">
         <v>164</v>
       </c>
@@ -1565,10 +1586,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
       <c r="D61" s="20"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>10</v>
       </c>
@@ -1581,8 +1605,11 @@
       <c r="D62" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
       <c r="D63" s="20" t="s">
         <v>103</v>
       </c>
@@ -1590,7 +1617,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
       <c r="D64" s="20" t="s">
         <v>107</v>
       </c>
@@ -1890,9 +1919,9 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="795" topLeftCell="A49" activePane="bottomLeft"/>
+      <pane ySplit="795" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD59"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="4650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Testfall" sheetId="1" r:id="rId1"/>
     <sheet name="14-04-26" sheetId="2" r:id="rId2"/>
     <sheet name="14-05-22" sheetId="3" r:id="rId3"/>
+    <sheet name="2014-05-28" sheetId="5" r:id="rId4"/>
+    <sheet name="2014-05-28 BK4_utökat" sheetId="6" r:id="rId5"/>
+    <sheet name="Systemtest" sheetId="7" r:id="rId6"/>
+    <sheet name="Blad1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="203">
   <si>
     <t>TF</t>
   </si>
@@ -97,9 +101,6 @@
     <t>Användaren laddar om sidan tre gånger direkt efter varandra</t>
   </si>
   <si>
-    <t>3.1.a</t>
-  </si>
-  <si>
     <t>Scenario: Ändra värde på befintligt attribut</t>
   </si>
   <si>
@@ -136,9 +137,6 @@
     <t>Iframens bakgrundsfärg blir vit och attributets värde i style-taggen ändras till inmatat värde.</t>
   </si>
   <si>
-    <t>3.2.a</t>
-  </si>
-  <si>
     <t>Scenario: Nytt css-attribut</t>
   </si>
   <si>
@@ -154,9 +152,6 @@
     <t>Hjälptext?</t>
   </si>
   <si>
-    <t>3.3.a</t>
-  </si>
-  <si>
     <t>Scenario: Ta bort css-attribut</t>
   </si>
   <si>
@@ -169,9 +164,6 @@
     <t>Version per sprint 2</t>
   </si>
   <si>
-    <t>Testrapport för enhetstest 2014-04-26</t>
-  </si>
-  <si>
     <t>ua</t>
   </si>
   <si>
@@ -481,9 +473,6 @@
     <t>Meddelandet säger att det inte finns nägon sparad malll med namnet '' . Borde säga att namn måste anges. Se Öppna-funktionen.</t>
   </si>
   <si>
-    <t>Testrapport för enhetstest 2014-05-22</t>
-  </si>
-  <si>
     <t>Version per sprint 5</t>
   </si>
   <si>
@@ -533,6 +522,144 @@
   </si>
   <si>
     <t>Mallen visas i css-rutan och tillämpas på html-koden och syns i resultatet och felmeddelandet försvinner.</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>Scenario: Skapa html-mall</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>Scenario: Skapa css-defaultmall</t>
+  </si>
+  <si>
+    <t>Html-mall med flera element som css-kod ska appliceras på visas i en ruta i sidan och i resultatrutan visas en sida baserad på html-mallen</t>
+  </si>
+  <si>
+    <t>Css-mall med både layout och färger visas i en ruta i sidan och i resultatrutan visas en sida där denna css-mall är applicerad på html-koden</t>
+  </si>
+  <si>
+    <t>Scenario: Välja färgtema</t>
+  </si>
+  <si>
+    <t>Scenario: Byta färgtema</t>
+  </si>
+  <si>
+    <t>BK2.2 Byta layout</t>
+  </si>
+  <si>
+    <t>Scenario: Välja layouter</t>
+  </si>
+  <si>
+    <r>
+      <t>Scenario: B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2E74B5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF2E74B5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>ta layout</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1a</t>
+  </si>
+  <si>
+    <t>2.1b</t>
+  </si>
+  <si>
+    <t>2.2a</t>
+  </si>
+  <si>
+    <t>2.2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-6</t>
+  </si>
+  <si>
+    <t>I samband med resultat-rutan visas en kontroll där användaren kan välja färgtema</t>
+  </si>
+  <si>
+    <t>Användaren väljer färgtema Royal</t>
+  </si>
+  <si>
+    <t>Användaren väljer färgtema Black &amp; white</t>
+  </si>
+  <si>
+    <t>I samband med resultat-rutan visas en kontroll där användaren kan välja layout</t>
+  </si>
+  <si>
+    <t>Användaren väljer layout Simple</t>
+  </si>
+  <si>
+    <t>Användaren väljer layout Layout 2</t>
+  </si>
+  <si>
+    <t>I css-rutan visas den css-kod som står i StyleLayoutTwo.css och layout i enlighet med samma fil appliceras på html-koden och visas i resultatrutan.</t>
+  </si>
+  <si>
+    <t>I css-rutan visas den css-kod som står i StyleRoyalColor.css och färger i enlighet med samma fil appliceras på html-koden och visas i resultatrutan.</t>
+  </si>
+  <si>
+    <t>I css-rutan visas den css-kod som står i StyleBlackWhiteColor.css och färger i enlighet med samma fil appliceras på html-koden och visas i resultatrutan.</t>
+  </si>
+  <si>
+    <t>I css-rutan visas den css-kod som står i StyleLayoutSimple.css och layout i enlighet med samma fil appliceras på html-koden och visas i resultatrutan.</t>
+  </si>
+  <si>
+    <t>3.1.</t>
+  </si>
+  <si>
+    <t>3.2.</t>
+  </si>
+  <si>
+    <t>3.3.</t>
+  </si>
+  <si>
+    <t>Testrapport för enhetstest 2014-04-26 - Krav 1a-c, 1f, 3.1-3</t>
+  </si>
+  <si>
+    <t>Testrapport för enhetstest 2014-05-22 - Krav 4.1-3, 4.5-8</t>
+  </si>
+  <si>
+    <t>BK2</t>
+  </si>
+  <si>
+    <t>Testrapport för enhetstest 2014-05-28 - Krav 1d, 1e samt BK2 Krav 2.1a, 2.1b, 2.2a, 2.2b</t>
+  </si>
+  <si>
+    <t>Version per 140528</t>
+  </si>
+  <si>
+    <t>Texten i filen bör vara konsekvent. Antingen blankrad mellan selektionerna eller inte. Har raderat ett tidigare bortkommaterat attribut.</t>
+  </si>
+  <si>
+    <t>Har raderat en selector utan attribut…</t>
+  </si>
+  <si>
+    <t>Gå in på sida</t>
+  </si>
+  <si>
+    <t>välj färgschema och layout</t>
+  </si>
+  <si>
+    <t>gör några ändringar.</t>
   </si>
 </sst>
 </file>
@@ -540,9 +667,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +756,18 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F4D78"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -656,9 +795,9 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -733,6 +872,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1019,12 +1167,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G93"/>
+  <dimension ref="A2:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="555" topLeftCell="A78" activePane="bottomLeft"/>
       <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1280,59 +1428,59 @@
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1343,32 +1491,32 @@
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1379,31 +1527,31 @@
         <v>6</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D39" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="D41" s="32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E41" s="32"/>
       <c r="G41" s="32"/>
@@ -1413,61 +1561,61 @@
         <v>7</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42" s="4">
         <v>3</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="D43" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="D44" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D45" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D46" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D47" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D48" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1475,13 +1623,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C50" s="4">
         <v>3</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E50" s="8"/>
     </row>
@@ -1489,50 +1637,50 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1546,13 +1694,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E57" s="8"/>
     </row>
@@ -1560,30 +1708,30 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1597,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -1611,39 +1759,39 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="D64" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D65" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D66" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1658,13 +1806,13 @@
         <v>11</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C68" s="5">
         <v>4</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E68" s="24"/>
       <c r="G68" s="24"/>
@@ -1673,10 +1821,10 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G69" s="24"/>
     </row>
@@ -1684,10 +1832,10 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="D70" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G70" s="24"/>
     </row>
@@ -1695,10 +1843,10 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G71" s="24"/>
     </row>
@@ -1706,10 +1854,10 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G72" s="24"/>
     </row>
@@ -1717,10 +1865,10 @@
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G73" s="24"/>
     </row>
@@ -1736,40 +1884,40 @@
         <v>12</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C75" s="4">
         <v>4</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D76" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D77" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D78" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,53 +1925,53 @@
         <v>13</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C80" s="4">
         <v>5</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D81" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D82" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D83" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D84" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D85" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -1838,39 +1986,39 @@
         <v>14</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C87" s="33">
         <v>6</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B88" s="30"/>
       <c r="C88" s="29"/>
       <c r="D88" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B89" s="30"/>
       <c r="C89" s="29"/>
       <c r="D89" s="32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -1882,30 +2030,262 @@
         <v>15</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C91" s="4">
         <v>6</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D92" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B93" s="30"/>
       <c r="D93" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="30"/>
+      <c r="C94" s="33"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>16</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="33">
+        <v>5</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="32"/>
+      <c r="G98" s="32"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>17</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E93" s="24" t="s">
-        <v>168</v>
+    </row>
+    <row r="100" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="30"/>
+      <c r="D102" s="36"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>18</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="4">
+        <v>6</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="30"/>
+      <c r="D104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="30"/>
+      <c r="D105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="30"/>
+      <c r="D106" s="37"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>19</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="4">
+        <v>6</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B108" s="30"/>
+      <c r="D108" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B109" s="30"/>
+      <c r="D109" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="30"/>
+      <c r="D110" s="34"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>20</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" s="4">
+        <v>6</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="30"/>
+      <c r="D113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="30"/>
+      <c r="D114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="30"/>
+      <c r="D115" s="37"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>21</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="4">
+        <v>6</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B117" s="30"/>
+      <c r="D117" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B118" s="30"/>
+      <c r="D118" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1919,9 +2299,9 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="795" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <pane ySplit="795" activePane="bottomLeft"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1938,16 +2318,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +2371,7 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -2006,12 +2386,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
@@ -2024,12 +2404,12 @@
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
@@ -2044,12 +2424,12 @@
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -2062,7 +2442,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2082,7 +2462,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
@@ -2097,12 +2477,12 @@
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>10</v>
@@ -2115,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2125,7 +2505,7 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -2140,12 +2520,12 @@
         <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>10</v>
@@ -2158,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2182,7 +2562,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2193,12 +2573,12 @@
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2207,15 +2587,15 @@
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2224,10 +2604,10 @@
         <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2238,7 +2618,7 @@
     </row>
     <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2249,35 +2629,35 @@
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2285,7 +2665,7 @@
     </row>
     <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>22</v>
@@ -2294,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2302,10 +2682,10 @@
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2313,7 +2693,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2321,88 +2701,88 @@
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="F37" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2413,38 +2793,38 @@
         <v>5</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D40" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D41" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2452,12 +2832,12 @@
     </row>
     <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D43" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>7</v>
@@ -2472,12 +2852,12 @@
         <v>9</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>10</v>
@@ -2490,12 +2870,12 @@
         <v>11</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>14</v>
@@ -2510,12 +2890,12 @@
         <v>15</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>10</v>
@@ -2528,12 +2908,12 @@
         <v>16</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2544,35 +2924,35 @@
         <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2580,27 +2960,27 @@
         <v>6</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D53" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2646,9 +3026,9 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="795"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="795" topLeftCell="A4"/>
+      <selection sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2665,13 +3045,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2709,93 +3089,93 @@
         <v>7</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="D6" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="D7" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="D8" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="D9" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="D10" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2811,71 +3191,71 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="D14" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="D15" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="D16" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="D17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2893,42 +3273,42 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="D21" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="D22" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2946,52 +3326,52 @@
         <v>10</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="D26" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="D27" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="D28" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3011,30 +3391,30 @@
         <v>11</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" s="5">
         <v>4</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E31" s="24"/>
       <c r="G31" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="D32" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G32" s="24"/>
     </row>
@@ -3042,13 +3422,13 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="D33" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G33" s="24"/>
     </row>
@@ -3056,13 +3436,13 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="D34" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G34" s="24"/>
     </row>
@@ -3070,13 +3450,13 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="D35" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G35" s="24"/>
     </row>
@@ -3092,42 +3472,42 @@
         <v>12</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C37" s="4">
         <v>4</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="D38" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="D39" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3144,72 +3524,2051 @@
         <v>13</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C42" s="4">
         <v>5</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="D43" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="D44" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="D45" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="D46" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="975" topLeftCell="A16" activePane="bottomLeft"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="80.875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9" style="31" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>16</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="33">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="30"/>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="30"/>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="30"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
+        <v>17</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C9" s="30"/>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C10" s="30"/>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="30"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="30">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="31">
+        <v>6</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>19</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="31">
+        <v>6</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D18" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D19" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
+        <v>20</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="31">
+        <v>6</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="30">
+        <v>21</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="31">
+        <v>6</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D27" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D28" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G57"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="555" activePane="bottomLeft"/>
+      <selection sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="80.875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9" style="31" customWidth="1"/>
+    <col min="7" max="7" width="75.375" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="33">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>15</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="31">
+        <v>6</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D10" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="25"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>7</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="31">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="30">
+        <v>8</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="31">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D22" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D23" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D24" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="20"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="30">
+        <v>9</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="31">
+        <v>3</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" s="20"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="30">
+        <v>10</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D33" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D34" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D35" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D36" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="30">
+        <v>11</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="33">
+        <v>4</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="D39" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="D40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="D41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="D42" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="D43" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="32"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="30">
+        <v>12</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="31">
+        <v>4</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D47" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D48" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="30">
+        <v>13</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="31">
+        <v>5</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D51" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D52" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D53" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D54" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="555" topLeftCell="A106" activePane="bottomLeft"/>
+      <selection sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="80.875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9" style="31" customWidth="1"/>
+    <col min="7" max="7" width="75.375" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="30">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="30"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="30">
+        <v>2</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="30">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="30"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="30">
+        <v>3</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="30"/>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="30"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="30"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="30"/>
+      <c r="D20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="30">
+        <v>4</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="31">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D28" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D29" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D30" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D31" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D32" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="30">
+        <v>5</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="31">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D36" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="30">
+        <v>6</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="31">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D39" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D41" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>7</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="31">
+        <v>3</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D43" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D44" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D45" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D46" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D47" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D48" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="30">
+        <v>8</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="31">
+        <v>3</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="D51" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="D52" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="D53" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="D54" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="D55" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="30">
+        <v>9</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="31">
+        <v>3</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="D58" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="D59" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="D60" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="30">
+        <v>10</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="D63" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="D64" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D65" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D66" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="30">
+        <v>11</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="33">
+        <v>4</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="G68" s="24"/>
+    </row>
+    <row r="69" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="D69" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="D70" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" s="24"/>
+    </row>
+    <row r="71" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="D71" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="D72" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="D73" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="24"/>
+    </row>
+    <row r="74" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="32"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="30">
+        <v>12</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="31">
+        <v>4</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D76" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D77" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D78" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="30">
+        <v>13</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="31">
+        <v>5</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D81" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D82" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D83" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D84" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="20"/>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <v>14</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="33">
+        <v>6</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C90" s="33"/>
+    </row>
+    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="30">
+        <v>15</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="31">
+        <v>6</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D92" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="D93" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C94" s="33"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="30">
+        <v>16</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="33">
+        <v>5</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C96" s="30"/>
+      <c r="D96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C97" s="30"/>
+      <c r="D97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C98" s="30"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="30">
+        <v>17</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C100" s="30"/>
+      <c r="D100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C101" s="30"/>
+      <c r="D101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="36"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="30">
+        <v>18</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="31">
+        <v>6</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="37"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="30">
+        <v>19</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="31">
+        <v>6</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D108" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D109" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="34"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="30">
+        <v>20</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" s="31">
+        <v>6</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="37"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="30">
+        <v>21</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="31">
+        <v>6</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D117" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D118" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tester.xlsx
+++ b/tester.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="4650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="4650" tabRatio="774" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Testfall" sheetId="1" r:id="rId1"/>
     <sheet name="14-04-26" sheetId="2" r:id="rId2"/>
     <sheet name="14-05-22" sheetId="3" r:id="rId3"/>
     <sheet name="2014-05-28" sheetId="5" r:id="rId4"/>
-    <sheet name="2014-05-28 BK4_utökat" sheetId="6" r:id="rId5"/>
-    <sheet name="Systemtest" sheetId="7" r:id="rId6"/>
-    <sheet name="Blad1" sheetId="4" r:id="rId7"/>
+    <sheet name="2014-05-28 Användartest" sheetId="8" r:id="rId5"/>
+    <sheet name="2014-06-01 BK4_utökat" sheetId="6" r:id="rId6"/>
+    <sheet name="2014-04-14 Krav 4.31-32" sheetId="10" r:id="rId7"/>
+    <sheet name="Blad6" sheetId="9" r:id="rId8"/>
+    <sheet name="Systemtest" sheetId="7" r:id="rId9"/>
+    <sheet name="Blad1" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="265">
   <si>
     <t>TF</t>
   </si>
@@ -471,9 +474,6 @@
   </si>
   <si>
     <t>Meddelandet säger att det inte finns nägon sparad malll med namnet '' . Borde säga att namn måste anges. Se Öppna-funktionen.</t>
-  </si>
-  <si>
-    <t>Version per sprint 5</t>
   </si>
   <si>
     <t>4.23</t>
@@ -653,13 +653,202 @@
     <t>Har raderat en selector utan attribut…</t>
   </si>
   <si>
-    <t>Gå in på sida</t>
-  </si>
-  <si>
-    <t>välj färgschema och layout</t>
-  </si>
-  <si>
-    <t>gör några ändringar.</t>
+    <t>Användartest</t>
+  </si>
+  <si>
+    <t>Gick in på sidan och loggade in på befintlig användare, testade färdiga layouter och färgscheman.</t>
+  </si>
+  <si>
+    <t>Testade också att visa användarens sparade mallar samt öppna några av dem. Allt detta fungerade smidigt.</t>
+  </si>
+  <si>
+    <t>Det blev tydligt att det jag gör vid utloggning, som att ta bort användarens mallhantering, legat fel. Det har varit</t>
+  </si>
+  <si>
+    <t>kopplat till att användaren klickar på Logga ut-knappen och inte där användaren faktiskt blir utloggad, i en anonym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Han valde därefter att  logga ut skapa en ny användare och logga in denne. </t>
+  </si>
+  <si>
+    <t>När han kom in visades den lista med mallar som tidigare visats på föregående användare utan att tas bort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dessutom var senast visade mall kvar och applicerades på resultatet. </t>
+  </si>
+  <si>
+    <t>Dölj-knappen låg kvar från föregående användare.</t>
+  </si>
+  <si>
+    <t>funktion i en Firebase-variabel. Det kan vara det som ansvarar för felet bakom krav 8.1.</t>
+  </si>
+  <si>
+    <t>så att det är det som möter en ny användare. Däremot är jag inte säker på att man vill ladda om resultatet vid utloggning eftersom det är tänkt</t>
+  </si>
+  <si>
+    <t>att man ska kunna testa i utloggat läge. Det är därför inte säkert att man vill nollställa det man gjort för att man loggar ut. Man får hellre hoppas</t>
+  </si>
+  <si>
+    <t>att den som går in på samma webbläsare som någon annan varit i Mallgrodan på kan tänka sig att ladda om om den vill eller byta till färdig eller</t>
+  </si>
+  <si>
+    <t>sparad egen mall.</t>
+  </si>
+  <si>
+    <t>Beskrivning</t>
+  </si>
+  <si>
+    <t>Listan som visar sparade mallar måste tas bort vid utloggning, Dölj-knapp ska också bytas mot en Visa-lista-knapp vid utloggning</t>
+  </si>
+  <si>
+    <t>Åtgärder</t>
+  </si>
+  <si>
+    <t>Krav 4.29</t>
+  </si>
+  <si>
+    <t>Krav 4.28</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>Visa/Dölja mallar vid ny användare</t>
+  </si>
+  <si>
+    <t>Användare 1 loggar in…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> och väljer att visa sina sparade mallar</t>
+  </si>
+  <si>
+    <t>Knappar för att Spara, Öppna, Ta bort och Visa samt namnfält blir synliga</t>
+  </si>
+  <si>
+    <t>Användarens mallar visas i lista</t>
+  </si>
+  <si>
+    <t>och väljer att öppna en sparad mall</t>
+  </si>
+  <si>
+    <t>Mallen skrivs ut i css-ruta samt appliceras på resultatet</t>
+  </si>
+  <si>
+    <t>och loggar ut</t>
+  </si>
+  <si>
+    <t>Knappar för att Spara, Öppna, Ta bort och Visa samt namnfält döljs och info-text för sparning visas</t>
+  </si>
+  <si>
+    <t>Knappar för att Spara, Öppna, Ta bort och Visa samt namnfält blir synliga (ingen lista)</t>
+  </si>
+  <si>
+    <t>Användare 2 loggar in…</t>
+  </si>
+  <si>
+    <t>användare 2s sparade mallar visas</t>
+  </si>
+  <si>
+    <t>Ua</t>
+  </si>
+  <si>
+    <t>Nu säger meddelandet att mailadressen är upptagen!</t>
+  </si>
+  <si>
+    <t>Det går att registrera sig med blankt lösenord. Krav 4.17</t>
+  </si>
+  <si>
+    <t>Meddelande: Felaktig mailadress</t>
+  </si>
+  <si>
+    <t>Meddelande: Användaren finns inte hos Mallgrodan</t>
+  </si>
+  <si>
+    <t>Meddelande: Lösenordet stämmer inte med användaren</t>
+  </si>
+  <si>
+    <t>Meddelande: Du är inte inloggad</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* Bara inloggad användare får alternativet att logga ut</t>
+  </si>
+  <si>
+    <t>Meddelande: Du måste döpa mallen för att kunna spara</t>
+  </si>
+  <si>
+    <t>Version 140530</t>
+  </si>
+  <si>
+    <t>*Bara inloggad användare får alternativet att spara mallar</t>
+  </si>
+  <si>
+    <t>Meddelande: Du måste ange namnet på mallen du vill öppna</t>
+  </si>
+  <si>
+    <t>Meddelande: Det finns ingen sparad mall med namnet 'inmatat namn'. Inputen-töms inte… Ska den det? Tillagt krav 4.30</t>
+  </si>
+  <si>
+    <t>Se tr 11. Förbättringsmöjlighet: Inmatade mallnamnet står kvar, input töms ej. Krav 4.30</t>
+  </si>
+  <si>
+    <t>Version per 140601</t>
+  </si>
+  <si>
+    <t>Se tf 7-9</t>
+  </si>
+  <si>
+    <t>Se tf 10-13</t>
+  </si>
+  <si>
+    <t>Får nu en alert som säger Remove. Ta bort och gör ev Confirm</t>
+  </si>
+  <si>
+    <t>Inloggad användare lämnar namnfältet tomt och väjler att ta bort</t>
+  </si>
+  <si>
+    <t>Testrapport för enhetstest 2014-06-01 - BK4 - Krav 4.1-4.8 utökade med 4.13, 4.23, 4.28, 4.29</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>och väljer att öppna en mall som inte tidigare sparats</t>
+  </si>
+  <si>
+    <t>Knappar för att Spara, Öppna, Ta bort och Visa samt namnfält blir synliga. Inget meddelande (att namn på mall måste anges) finns kvar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Meddelandet kan förbättras. Se Krav 4.25 </t>
+  </si>
+  <si>
+    <t>UPPTÄCKT UNDER TIDEN</t>
+  </si>
+  <si>
+    <t>PLUSS: Valde att logga ut användaren och in med en ny. Felmeddelandet om man ex försökt öppna en mall som inte finns ligger då kvar. Även (felaktiga) namnet som man angett ligger kvar i inputen.</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>Ingenting händer. Meddelande att namn på mall inte finns</t>
+  </si>
+  <si>
+    <t>Ingenting händer. Meddelande att namn på mall inte finns.  Det namn som angavs som mallnamn försvinner ur inputen.</t>
+  </si>
+  <si>
+    <t>Version per 140601-3</t>
+  </si>
+  <si>
+    <t>Testrapport för enhetstest 2014-06-01 - BK4 - Krav 4.31, 4.32</t>
+  </si>
+  <si>
+    <t>Knappar för att Spara, Öppna, Ta bort och Visa samt namnfält blir synliga. Inget meddelande (att mall inte finns) finns kvar.</t>
   </si>
 </sst>
 </file>
@@ -797,7 +986,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -883,6 +1072,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1167,12 +1358,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G118"/>
+  <dimension ref="A2:G136"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="555" topLeftCell="A117" activePane="bottomLeft"/>
       <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87:E93"/>
+      <selection pane="bottomLeft" activeCell="E136" sqref="A130:E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1371,7 @@
     <col min="1" max="1" width="3.875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="80.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="9" style="4" customWidth="1"/>
     <col min="7" max="7" width="75.375" style="8" customWidth="1"/>
@@ -1428,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
@@ -1491,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
@@ -1527,7 +1718,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1551,7 +1742,7 @@
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="D41" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="32"/>
       <c r="G41" s="32"/>
@@ -1612,10 +1803,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D48" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1677,10 +1868,10 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1728,10 +1919,10 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1788,10 +1979,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D66" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1865,10 +2056,10 @@
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G73" s="24"/>
     </row>
@@ -1914,10 +2105,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D78" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -1968,10 +2159,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D85" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -1986,39 +2177,39 @@
         <v>14</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="33">
         <v>6</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B88" s="30"/>
       <c r="C88" s="29"/>
       <c r="D88" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B89" s="30"/>
       <c r="C89" s="29"/>
       <c r="D89" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2030,13 +2221,13 @@
         <v>15</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" s="4">
         <v>6</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -2050,10 +2241,10 @@
     <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B93" s="30"/>
       <c r="D93" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2065,13 +2256,13 @@
         <v>16</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="33">
         <v>5</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2081,7 +2272,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2091,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -2107,13 +2298,13 @@
         <v>17</v>
       </c>
       <c r="B99" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2123,7 +2314,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2133,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2145,13 +2336,13 @@
         <v>18</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="4">
         <v>6</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -2160,7 +2351,7 @@
         <v>8</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -2169,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -2181,31 +2372,31 @@
         <v>19</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C107" s="4">
         <v>6</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B108" s="30"/>
       <c r="D108" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B109" s="30"/>
       <c r="D109" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -2217,7 +2408,7 @@
         <v>55</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -2225,13 +2416,13 @@
         <v>20</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C112" s="4">
         <v>6</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2240,7 +2431,7 @@
         <v>8</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2249,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2261,36 +2452,196 @@
         <v>21</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C116" s="4">
         <v>6</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B117" s="30"/>
       <c r="D117" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E117" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B118" s="30"/>
       <c r="D118" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>22</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C120" s="4">
+        <v>7</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" s="4">
+        <v>7</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D124" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D127" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>23</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="4">
+        <v>7</v>
+      </c>
+      <c r="D130" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E130" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D131" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D132" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D133" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E133" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>24</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" s="4">
+        <v>7</v>
+      </c>
+      <c r="D135" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D136" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="E136" s="32" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2318,7 +2669,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="4"/>
     </row>
@@ -2701,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -3025,10 +3376,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="795" topLeftCell="A4"/>
-      <selection sqref="A1:A2"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="795" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3045,13 +3396,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3599,8 +3950,8 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="975" topLeftCell="A16" activePane="bottomLeft"/>
-      <selection activeCell="A3" sqref="A3"/>
+      <pane ySplit="975" topLeftCell="A16"/>
+      <selection sqref="A1:XFD2"/>
       <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -3618,12 +3969,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3652,13 +4003,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="33">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -3667,7 +4018,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>44</v>
@@ -3679,7 +4030,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>44</v>
@@ -3694,13 +4045,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -3709,7 +4060,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>44</v>
@@ -3721,7 +4072,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>44</v>
@@ -3733,7 +4084,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3741,13 +4092,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="31">
         <v>6</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3755,7 +4106,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>44</v>
@@ -3766,7 +4117,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>44</v>
@@ -3780,21 +4131,21 @@
         <v>19</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="31">
         <v>6</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D18" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>44</v>
@@ -3802,10 +4153,10 @@
     </row>
     <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D19" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>44</v>
@@ -3819,7 +4170,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3827,13 +4178,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="31">
         <v>6</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3841,7 +4192,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>44</v>
@@ -3852,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>44</v>
@@ -3866,41 +4217,41 @@
         <v>21</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="31">
         <v>6</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D27" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>186</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D28" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>44</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3911,12 +4262,1087 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G57"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="555" activePane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39">
+        <v>41787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="56.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9" style="31" customWidth="1"/>
+    <col min="7" max="7" width="75.375" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>14</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="33">
+        <v>6</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>15</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="31">
+        <v>6</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D11" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D12" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="25"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="30">
+        <v>22</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="31">
+        <v>7</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="31">
+        <v>7</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D18" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D19" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>7</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="31">
+        <v>3</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D24" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D25" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D26" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="30">
+        <v>8</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D33" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D34" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D35" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D36" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D37" s="20"/>
+      <c r="G37" s="31"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="30">
+        <v>9</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="31">
+        <v>3</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D39" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D40" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D41" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D42" s="20"/>
+      <c r="G42" s="31"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="30">
+        <v>10</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D44" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="31"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D45" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D46" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D47" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="30">
+        <v>11</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="33">
+        <v>4</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="D50" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="D51" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="D52" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="D53" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="D54" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="32"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="30">
+        <v>12</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="31">
+        <v>4</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D57" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D58" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D59" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="30">
+        <v>13</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="31">
+        <v>5</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D62" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D63" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D64" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D65" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D66" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="3:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C68" s="33"/>
+      <c r="E68" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="80.875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9" style="31" customWidth="1"/>
+    <col min="7" max="7" width="75.375" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>23</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="31">
+        <v>7</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D5" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D6" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D7" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>24</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="31">
+        <v>7</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D10" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G118"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="555" topLeftCell="A112" activePane="bottomLeft"/>
       <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3952,545 +5378,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>14</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="33">
-        <v>6</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>15</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="31">
-        <v>6</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D9" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D10" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>7</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="31">
-        <v>3</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="D13" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="D14" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D15" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D17" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
-        <v>8</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="31">
-        <v>3</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D21" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D22" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="20"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
-        <v>9</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="31">
-        <v>3</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="20"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
-        <v>10</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D33" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="31"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D34" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D35" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
-        <v>11</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="33">
-        <v>4</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="D39" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="D40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="D41" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="D42" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="D43" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="32"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
-        <v>12</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="31">
-        <v>4</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D46" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D47" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D48" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
-        <v>13</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="31">
-        <v>5</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D51" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D52" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D53" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D54" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C57" s="33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G123"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A106" activePane="bottomLeft"/>
-      <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="80.875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9" style="31" customWidth="1"/>
-    <col min="7" max="7" width="75.375" style="32" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
@@ -4711,7 +5598,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="31">
         <v>2</v>
@@ -4774,7 +5661,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="31">
         <v>2</v>
@@ -4810,7 +5697,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="31">
         <v>2</v>
@@ -4832,7 +5719,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D41" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4891,10 +5778,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D48" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4956,10 +5843,10 @@
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="D55" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -5007,10 +5894,10 @@
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="D60" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -5067,10 +5954,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D66" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -5144,10 +6031,10 @@
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="D73" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G73" s="24"/>
     </row>
@@ -5193,10 +6080,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D78" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5247,10 +6134,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D85" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5261,37 +6148,37 @@
         <v>14</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="33">
         <v>6</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="29"/>
       <c r="D88" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="32" t="s">
         <v>152</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89" s="29"/>
       <c r="D89" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="32" t="s">
         <v>154</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -5302,13 +6189,13 @@
         <v>15</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" s="31">
         <v>6</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -5321,10 +6208,10 @@
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="D93" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -5335,13 +6222,13 @@
         <v>16</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="33">
         <v>5</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5350,7 +6237,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5359,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -5371,13 +6258,13 @@
         <v>17</v>
       </c>
       <c r="B99" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5386,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5395,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -5406,13 +6293,13 @@
         <v>18</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="31">
         <v>6</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -5420,7 +6307,7 @@
         <v>8</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -5428,7 +6315,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -5439,29 +6326,29 @@
         <v>19</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C107" s="31">
         <v>6</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D108" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D109" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -5472,7 +6359,7 @@
         <v>55</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -5480,13 +6367,13 @@
         <v>20</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C112" s="31">
         <v>6</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -5494,7 +6381,7 @@
         <v>8</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -5502,7 +6389,7 @@
         <v>12</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -5513,62 +6400,33 @@
         <v>21</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C116" s="31">
         <v>6</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D117" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E117" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D118" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D121" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D122" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D123" s="32" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tester.xlsx
+++ b/tester.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="4650" tabRatio="774" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="4650" tabRatio="774" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Testfall" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,7 @@
     <sheet name="2014-05-28" sheetId="5" r:id="rId4"/>
     <sheet name="2014-05-28 Användartest" sheetId="8" r:id="rId5"/>
     <sheet name="2014-06-01 BK4_utökat" sheetId="6" r:id="rId6"/>
-    <sheet name="2014-04-14 Krav 4.31-32" sheetId="10" r:id="rId7"/>
-    <sheet name="Blad6" sheetId="9" r:id="rId8"/>
-    <sheet name="Systemtest" sheetId="7" r:id="rId9"/>
-    <sheet name="Blad1" sheetId="4" r:id="rId10"/>
+    <sheet name="2014-06-01 Krav 4.31-32" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="265">
   <si>
     <t>TF</t>
   </si>
@@ -1361,9 +1358,9 @@
   <dimension ref="A2:G136"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A117" activePane="bottomLeft"/>
+      <pane ySplit="555" activePane="bottomLeft"/>
       <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="E136" sqref="A130:E136"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1785,7 +1782,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D46" s="11" t="s">
         <v>105</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="20" t="s">
@@ -1844,7 +1841,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="20" t="s">
@@ -1854,7 +1851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="20" t="s">
@@ -2628,20 +2625,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3949,10 +3932,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="975" topLeftCell="A16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="975" topLeftCell="A16" activePane="bottomLeft"/>
       <selection sqref="A1:XFD2"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4226,7 +4209,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D27" s="34" t="s">
         <v>184</v>
       </c>
@@ -4383,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:G52"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5184,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5319,1114 +5302,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G118"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A112" activePane="bottomLeft"/>
-      <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121:D125"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="80.875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9" style="31" customWidth="1"/>
-    <col min="7" max="7" width="75.375" style="32" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="30">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="30">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="30">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="30"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
-        <v>2</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="30">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="30">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="30">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="30">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="30"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
-        <v>3</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="30">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="30"/>
-      <c r="D17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="30"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="30"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="30"/>
-      <c r="D20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E21" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D23" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E24" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E25" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
-        <v>4</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="31">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D28" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D29" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D30" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D31" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D32" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E33" s="34"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
-        <v>5</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="31">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D35" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D36" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
-        <v>6</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="31">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D39" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
-        <v>7</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="31">
-        <v>3</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="D43" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="D44" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D45" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D47" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D48" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
-        <v>8</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="31">
-        <v>3</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="32"/>
-    </row>
-    <row r="51" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="D51" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="D52" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="D53" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="D54" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="D55" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="30">
-        <v>9</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="31">
-        <v>3</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="32"/>
-    </row>
-    <row r="58" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="D58" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="D59" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="D60" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="30">
-        <v>10</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="32"/>
-    </row>
-    <row r="63" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="D63" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="D64" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D65" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D66" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="G67" s="24"/>
-    </row>
-    <row r="68" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="30">
-        <v>11</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="33">
-        <v>4</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="G68" s="24"/>
-    </row>
-    <row r="69" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="D69" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" s="24"/>
-    </row>
-    <row r="70" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="D70" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="71" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="D71" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G71" s="24"/>
-    </row>
-    <row r="72" spans="1:7" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="D72" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G72" s="24"/>
-    </row>
-    <row r="73" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="D73" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="G73" s="24"/>
-    </row>
-    <row r="74" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="32"/>
-      <c r="G74" s="24"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="30">
-        <v>12</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" s="31">
-        <v>4</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D76" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D77" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D78" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="30">
-        <v>13</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="31">
-        <v>5</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D81" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D82" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D83" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D84" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E84" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D85" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
-        <v>14</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C87" s="33">
-        <v>6</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C90" s="33"/>
-    </row>
-    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="30">
-        <v>15</v>
-      </c>
-      <c r="B91" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C91" s="31">
-        <v>6</v>
-      </c>
-      <c r="D91" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D92" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="D93" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C94" s="33"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="30">
-        <v>16</v>
-      </c>
-      <c r="B95" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C95" s="33">
-        <v>5</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C96" s="30"/>
-      <c r="D96" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C97" s="30"/>
-      <c r="D97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C98" s="30"/>
-      <c r="D98" s="9"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="30">
-        <v>17</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C100" s="30"/>
-      <c r="D100" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C101" s="30"/>
-      <c r="D101" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D102" s="36"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="30">
-        <v>18</v>
-      </c>
-      <c r="B103" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C103" s="31">
-        <v>6</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D104" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D106" s="37"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="30">
-        <v>19</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C107" s="31">
-        <v>6</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D108" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D109" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D110" s="34"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B111" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="30">
-        <v>20</v>
-      </c>
-      <c r="B112" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" s="31">
-        <v>6</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D113" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D115" s="37"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="30">
-        <v>21</v>
-      </c>
-      <c r="B116" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C116" s="31">
-        <v>6</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D117" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D118" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E118" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>